--- a/opm_hero_property/heroes/108.xlsx
+++ b/opm_hero_property/heroes/108.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>108</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5254582.0069445</v>
+        <v>6183187.505904499</v>
       </c>
       <c r="U2" t="n">
-        <v>950898.151755</v>
+        <v>1096348.810155</v>
       </c>
       <c r="V2" t="n">
-        <v>790593.4580636601</v>
+        <v>917540.3391116601</v>
       </c>
       <c r="W2" t="n">
         <v>2900</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11093188.224325</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2083545.91132445</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2893434.657946</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1774770.55</v>
+      </c>
+      <c r="AU2" t="n">
         <v>599492.2522705949</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16377544.63792005</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19039704.24586605</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>108</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>657832.75672025</v>
+        <v>762408.70364025</v>
       </c>
       <c r="U3" t="n">
-        <v>137334.387935</v>
+        <v>153714.388735</v>
       </c>
       <c r="V3" t="n">
-        <v>105212.30993598</v>
+        <v>119806.13907998</v>
       </c>
       <c r="W3" t="n">
         <v>2900</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1257146.500225</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>236847.46945685</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>579514.3200180001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>201006.75</v>
+      </c>
+      <c r="AU3" t="n">
         <v>70231.845921785</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2226263.815603635</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2527776.285621635</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>108</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7579.1428</v>
+        <v>8068.1428</v>
       </c>
       <c r="U4" t="n">
-        <v>1544.6307</v>
+        <v>1620.6307</v>
       </c>
       <c r="V4" t="n">
-        <v>555.5322</v>
+        <v>621.5322</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18694.75478</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23244.70478</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1392.9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24637.60478</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>108</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20327.471</v>
+        <v>34702.471</v>
       </c>
       <c r="U5" t="n">
-        <v>3848.266</v>
+        <v>6099.266</v>
       </c>
       <c r="V5" t="n">
-        <v>1692.164</v>
+        <v>3657.164</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47504.5494</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59492.89939999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41205.65</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>100698.5494</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>108</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56958.0448</v>
+        <v>118587.0448</v>
       </c>
       <c r="U6" t="n">
-        <v>9957.775</v>
+        <v>19610.775</v>
       </c>
       <c r="V6" t="n">
-        <v>5473.684</v>
+        <v>13898.684</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>113749.5753</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>162112.8753</v>
+      <c r="AT6" t="n">
+        <v>176678.45</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>338791.3253</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>108</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62380.20092544</v>
+        <v>124009.20092544</v>
       </c>
       <c r="U7" t="n">
-        <v>11538.62103</v>
+        <v>21191.62103</v>
       </c>
       <c r="V7" t="n">
-        <v>6455.6530308</v>
+        <v>14880.6530308</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>113749.5753</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>176678.45</v>
+      </c>
+      <c r="AU7" t="n">
         <v>21976.31565954</v>
       </c>
-      <c r="AS7" t="n">
-        <v>184271.19095954</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>360949.64095954</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>108</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>67966.43723008</v>
+        <v>129595.43723008</v>
       </c>
       <c r="U8" t="n">
-        <v>13176.15326</v>
+        <v>22829.15326</v>
       </c>
       <c r="V8" t="n">
-        <v>7462.8961656</v>
+        <v>15887.8961656</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>113749.5753</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>693.7910572000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>176678.45</v>
+      </c>
+      <c r="AU8" t="n">
         <v>43959.38131908</v>
       </c>
-      <c r="AS8" t="n">
-        <v>206948.04767628</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>383626.49767628</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>108</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>243445.0472</v>
+        <v>426510.827672</v>
       </c>
       <c r="U9" t="n">
-        <v>39822.272</v>
+        <v>67680.58472</v>
       </c>
       <c r="V9" t="n">
-        <v>26665.3245</v>
+        <v>50676.629745</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>683859.3398750001</v>
+        <v>44032.59339875</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1197332.48327375</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>108</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>250025.17792096</v>
+        <v>490483.5556440333</v>
       </c>
       <c r="U10" t="n">
-        <v>41757.4047904</v>
+        <v>78843.45134077439</v>
       </c>
       <c r="V10" t="n">
-        <v>27840.20058765</v>
+        <v>58282.03293763769</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3123.31149845</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44032.59339875</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU10" t="n">
         <v>23564.7729802575</v>
       </c>
-      <c r="AS10" t="n">
-        <v>710547.4243537076</v>
+      <c r="AV10" t="n">
+        <v>252387.0915343359</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1382060.059286793</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>108</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>280837.5739376</v>
+        <v>586025.2947889728</v>
       </c>
       <c r="U11" t="n">
-        <v>50921.237008</v>
+        <v>97047.869518208</v>
       </c>
       <c r="V11" t="n">
-        <v>33316.3468727</v>
+        <v>70982.74985581859</v>
       </c>
       <c r="W11" t="n">
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>34686.42648295</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44032.59339875</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU11" t="n">
         <v>117862.337452875</v>
       </c>
-      <c r="AS11" t="n">
-        <v>836408.103810825</v>
+      <c r="AV11" t="n">
+        <v>421037.7589259899</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1676571.406135565</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>108</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>288320.6958256</v>
+        <v>676027.0482998495</v>
       </c>
       <c r="U12" t="n">
-        <v>53291.738768</v>
+        <v>108844.778569248</v>
       </c>
       <c r="V12" t="n">
-        <v>34602.1783427</v>
+        <v>83115.6338983834</v>
       </c>
       <c r="W12" t="n">
-        <v>2700</v>
+        <v>2720</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1290</v>
+        <v>1370</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>66249.54146744999</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44032.59339875</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU12" t="n">
         <v>117862.337452875</v>
       </c>
-      <c r="AS12" t="n">
-        <v>867971.218795325</v>
+      <c r="AV12" t="n">
+        <v>631089.1531492902</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1918185.915343365</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>108</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>324311.1372092</v>
+        <v>808845.304952505</v>
       </c>
       <c r="U13" t="n">
-        <v>63961.050332</v>
+        <v>132586.409676092</v>
       </c>
       <c r="V13" t="n">
-        <v>41027.0371557</v>
+        <v>100663.8087815294</v>
       </c>
       <c r="W13" t="n">
-        <v>2900</v>
+        <v>2950</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>97812.65645195001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44032.59339875</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU13" t="n">
         <v>233180.851818325</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1014852.848145275</v>
+      <c r="AV13" t="n">
+        <v>882435.0406673087</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2316413.432211334</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>108</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>295803.8177136</v>
+        <v>911472.4268985088</v>
       </c>
       <c r="U14" t="n">
-        <v>55662.24052799999</v>
+        <v>138961.462525952</v>
       </c>
       <c r="V14" t="n">
-        <v>35888.0098127</v>
+        <v>105721.1546190848</v>
       </c>
       <c r="W14" t="n">
-        <v>2900</v>
+        <v>2950</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1220</v>
+        <v>1420</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>515584.339875</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>97812.65645195001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43850.59339875</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>413977.95</v>
+      </c>
+      <c r="AU14" t="n">
         <v>117862.337452875</v>
       </c>
-      <c r="AS14" t="n">
-        <v>899352.3337798249</v>
+      <c r="AV14" t="n">
+        <v>1173448.28020874</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2491926.157387315</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>108</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>434679.2251260799</v>
+        <v>1450179.851207737</v>
       </c>
       <c r="U15" t="n">
-        <v>81350.56964751999</v>
+        <v>230302.6779956864</v>
       </c>
       <c r="V15" t="n">
-        <v>59417.23841424</v>
+        <v>179696.3398667483</v>
       </c>
       <c r="W15" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2440</v>
+        <v>2540</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>1360</v>
+        <v>1760</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>794105.15744</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>150070.76289932</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127285.4031488</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>757442.8500000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>148049.406236528</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1351134.276575848</v>
+      <c r="AV15" t="n">
+        <v>1962766.553887128</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4087209.283611776</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>108</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>440773.56719336</v>
+        <v>1483963.246723836</v>
       </c>
       <c r="U16" t="n">
-        <v>83124.81993064001</v>
+        <v>236455.2121657071</v>
       </c>
       <c r="V16" t="n">
-        <v>60517.38647956</v>
+        <v>184126.323990902</v>
       </c>
       <c r="W16" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>1430</v>
+        <v>2230</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>794105.15744</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>150070.76289932</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127467.4031488</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>757442.8500000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>172711.926632926</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1375978.796972246</v>
+      <c r="AV16" t="n">
+        <v>2041012.323493855</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4190299.573614902</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>108</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1037425.1896398</v>
+        <v>2666670.98858161</v>
       </c>
       <c r="U17" t="n">
-        <v>193950.44313728</v>
+        <v>426615.9172181402</v>
       </c>
       <c r="V17" t="n">
-        <v>166498.193</v>
+        <v>363414.4244960001</v>
       </c>
       <c r="W17" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>1710</v>
+        <v>2510</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1820375.69718</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>342638.98413944</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>758384.0278872</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1210210.4</v>
+      </c>
+      <c r="AU17" t="n">
         <v>228861.675717592</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3347444.857037032</v>
+      <c r="AV17" t="n">
+        <v>3086313.473314545</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7716750.758238778</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>108</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5254582.0069445</v>
+        <v>9355967.596920073</v>
       </c>
       <c r="U18" t="n">
-        <v>950898.151755</v>
+        <v>1494261.56975329</v>
       </c>
       <c r="V18" t="n">
-        <v>790593.4580636601</v>
+        <v>1248971.843126836</v>
       </c>
       <c r="W18" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>2270</v>
+        <v>3070</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11093188.224325</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2083545.91132445</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2893434.657946</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1774770.55</v>
+      </c>
+      <c r="AU18" t="n">
         <v>599492.2522705949</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16377544.63792005</v>
+      <c r="AV18" t="n">
+        <v>7826509.280331035</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26866213.52619708</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>108</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8580237.7103105</v>
+        <v>16064560.12259723</v>
       </c>
       <c r="U19" t="n">
-        <v>1542671.100875</v>
+        <v>2657194.251228001</v>
       </c>
       <c r="V19" t="n">
-        <v>1283619.41327826</v>
+        <v>2221468.40349938</v>
       </c>
       <c r="W19" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18000768.0894</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3380168.8410274</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6167419.063410001</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1774770.55</v>
+      </c>
+      <c r="AU19" t="n">
         <v>599492.2522705949</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26623698.932698</v>
+      <c r="AV19" t="n">
+        <v>16094801.83008388</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47193262.77619188</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>108</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>221743.49003008</v>
+        <v>228683.49003008</v>
       </c>
       <c r="U20" t="n">
-        <v>39800.04380375</v>
+        <v>40887.04380375</v>
       </c>
       <c r="V20" t="n">
-        <v>24102.69099808</v>
+        <v>25070.69099808</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>543664.29507</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3335.68934416</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20006.3</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12812.081100755</v>
       </c>
-      <c r="AS20" t="n">
-        <v>640108.765514915</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>660115.065514915</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>108</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>284951.1930265001</v>
+        <v>299270.4768765</v>
       </c>
       <c r="U21" t="n">
-        <v>51075.85116816</v>
+        <v>53342.66286416</v>
       </c>
       <c r="V21" t="n">
-        <v>33802.63908750001</v>
+        <v>35749.7872375</v>
       </c>
       <c r="W21" t="n">
         <v>1450</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>645023.6414900001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>43615.60741362</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>71949.5864149</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34714.4</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17036.041936309</v>
       </c>
-      <c r="AS21" t="n">
-        <v>839479.9908399291</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>880636.377254829</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>108</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>395369.63254096</v>
+        <v>523249.3636471195</v>
       </c>
       <c r="U22" t="n">
-        <v>70392.44345634001</v>
+        <v>88992.41881752554</v>
       </c>
       <c r="V22" t="n">
-        <v>50897.27909344999</v>
+        <v>66081.38265755979</v>
       </c>
       <c r="W22" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>817196.780205</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>104651.92526499</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103553.11780205</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>46883.05</v>
+      </c>
+      <c r="AU22" t="n">
         <v>31822.0917070535</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1186711.847177044</v>
+      <c r="AV22" t="n">
+        <v>289081.388789921</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1530840.003769014</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>108</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>450765.10964597</v>
+        <v>668575.7040341655</v>
       </c>
       <c r="U23" t="n">
-        <v>84113.61574123999</v>
+        <v>119811.9315561191</v>
       </c>
       <c r="V23" t="n">
-        <v>61603.52673776001</v>
+        <v>88333.67477703169</v>
       </c>
       <c r="W23" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>1430</v>
+        <v>2230</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>892190.2790699999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>168494.40922326</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169550.3055814</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>85782</v>
+      </c>
+      <c r="AU23" t="n">
         <v>41998.048709386</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1399038.337002646</v>
+      <c r="AV23" t="n">
+        <v>516618.0191552733</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2019265.661739319</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>108</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>518670.667692</v>
+        <v>841258.8172595119</v>
       </c>
       <c r="U24" t="n">
-        <v>101510.56462656</v>
+        <v>154968.8242929299</v>
       </c>
       <c r="V24" t="n">
-        <v>75968.46591470001</v>
+        <v>116891.7546643301</v>
       </c>
       <c r="W24" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>1710</v>
+        <v>2510</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1010652.14581</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>190638.28943538</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>301211.2858324</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>137062.9</v>
+      </c>
+      <c r="AU24" t="n">
         <v>50758.607379409</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1670309.242624789</v>
+      <c r="AV24" t="n">
+        <v>751703.0657434377</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2599468.294200626</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>108</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>657832.75672025</v>
+        <v>1438111.383016692</v>
       </c>
       <c r="U25" t="n">
-        <v>137334.387935</v>
+        <v>264350.985941835</v>
       </c>
       <c r="V25" t="n">
-        <v>105212.30993598</v>
+        <v>205538.2346924112</v>
       </c>
       <c r="W25" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>2270</v>
+        <v>3070</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1257146.500225</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>236847.46945685</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>579514.3200180001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>201006.75</v>
+      </c>
+      <c r="AU25" t="n">
         <v>70231.845921785</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2226263.815603635</v>
+      <c r="AV25" t="n">
+        <v>1934454.749875083</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4462231.035496717</v>
       </c>
     </row>
   </sheetData>
